--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value507.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value507.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.836996319670701</v>
+        <v>1.230642914772034</v>
       </c>
       <c r="B1">
-        <v>3.097017395072927</v>
+        <v>2.50421404838562</v>
       </c>
       <c r="C1">
-        <v>2.725524244926396</v>
+        <v>4.441522598266602</v>
       </c>
       <c r="D1">
-        <v>0.8868921923488621</v>
+        <v>2.523002624511719</v>
       </c>
       <c r="E1">
-        <v>0.6459849497392112</v>
+        <v>1.076730489730835</v>
       </c>
     </row>
   </sheetData>
